--- a/excel/data202402.xlsx
+++ b/excel/data202402.xlsx
@@ -928,12 +928,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>266578.98</t>
+          <t>266742.46</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2917.00</t>
+          <t>2925.00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1082,12 +1082,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>101201.20</t>
+          <t>101211.20</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>6582.00</t>
+          <t>6583.00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2558,12 +2558,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>71101.62</t>
+          <t>71265.10</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>1944.00</t>
+          <t>1952.00</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5444,81 +5444,81 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>公司部个人经营贷</t>
+          <t>个人经营贷</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>800</v>
+        <v>60.45</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>800</v>
+        <v>245</v>
       </c>
       <c r="F2" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>400</v>
+        <v>60.45</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>60.45</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>60.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>房抵贷</t>
+          <t>公司部个人经营贷</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>13590</v>
+        <v>800</v>
       </c>
       <c r="D3" t="n">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>13590</v>
+        <v>800</v>
       </c>
       <c r="F3" t="n">
-        <v>5.62</v>
+        <v>7.5</v>
       </c>
       <c r="G3" t="n">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>12890</v>
+        <v>800</v>
       </c>
       <c r="I3" t="n">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>191.41</v>
+        <v>400</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -5530,127 +5530,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>房抵贷-公司部</t>
+          <t>房抵贷</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>766</v>
+        <v>71</v>
       </c>
       <c r="C4" t="n">
-        <v>188321</v>
+        <v>13590</v>
       </c>
       <c r="D4" t="n">
-        <v>798</v>
+        <v>72</v>
       </c>
       <c r="E4" t="n">
-        <v>188593</v>
+        <v>13590</v>
       </c>
       <c r="F4" t="n">
         <v>5.62</v>
       </c>
       <c r="G4" t="n">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="H4" t="n">
-        <v>33076</v>
+        <v>12890</v>
       </c>
       <c r="I4" t="n">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="J4" t="n">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="K4" t="n">
-        <v>245.85</v>
+        <v>191.41</v>
       </c>
       <c r="L4" t="n">
-        <v>2355</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>2125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>瑞e惠-云度</t>
+          <t>房抵贷-公司部</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>766</v>
       </c>
       <c r="C5" t="n">
-        <v>115.78</v>
+        <v>188321</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>798</v>
       </c>
       <c r="E5" t="n">
-        <v>186.78</v>
+        <v>188593</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>5.62</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="H5" t="n">
-        <v>56.55</v>
+        <v>33076</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="K5" t="n">
-        <v>14.47</v>
+        <v>245.85</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2355</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>瑞e惠-平安普惠</t>
+          <t>瑞e惠-云度</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1944</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>71101.62</v>
+        <v>115.78</v>
       </c>
       <c r="D6" t="n">
-        <v>1944</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>93124.8</v>
+        <v>186.78</v>
       </c>
       <c r="F6" t="n">
-        <v>6.26</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>140</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>6684.3</v>
+        <v>56.55</v>
       </c>
       <c r="I6" t="n">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>36.57</v>
+        <v>14.47</v>
       </c>
       <c r="L6" t="n">
-        <v>1469.39</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -5659,41 +5659,41 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>瑞e惠-磁金融</t>
+          <t>瑞e惠-平安普惠</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150</v>
+        <v>1952</v>
       </c>
       <c r="C7" t="n">
-        <v>8175.36</v>
+        <v>71265.10000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>395</v>
+        <v>1952</v>
       </c>
       <c r="E7" t="n">
-        <v>8175.36</v>
+        <v>93350.89999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>6.26</v>
       </c>
       <c r="G7" t="n">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="H7" t="n">
-        <v>2469.71</v>
+        <v>6684.3</v>
       </c>
       <c r="I7" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="J7" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="K7" t="n">
-        <v>54.5</v>
+        <v>36.51</v>
       </c>
       <c r="L7" t="n">
-        <v>40</v>
+        <v>1475.07</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -5702,41 +5702,41 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>瑞e惠-锱云科技</t>
+          <t>瑞e惠-磁金融</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="C8" t="n">
-        <v>2508.5</v>
+        <v>8175.36</v>
       </c>
       <c r="D8" t="n">
-        <v>38</v>
+        <v>395</v>
       </c>
       <c r="E8" t="n">
-        <v>2508.5</v>
+        <v>8175.36</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="H8" t="n">
-        <v>382</v>
+        <v>2469.71</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K8" t="n">
-        <v>66.01000000000001</v>
+        <v>54.5</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -5745,127 +5745,127 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>瑞商贷</t>
+          <t>瑞e惠-锱云科技</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6327</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>90143.00999999999</v>
+        <v>2508.5</v>
       </c>
       <c r="D9" t="n">
-        <v>7747</v>
+        <v>38</v>
       </c>
       <c r="E9" t="n">
-        <v>124849.7</v>
+        <v>2508.5</v>
       </c>
       <c r="F9" t="n">
-        <v>18.58</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>1436</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
-        <v>28902.3</v>
+        <v>382</v>
       </c>
       <c r="I9" t="n">
-        <v>1695</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>1259</v>
+        <v>7</v>
       </c>
       <c r="K9" t="n">
-        <v>14.25</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="L9" t="n">
-        <v>6347.1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>2493.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>瑞商贷-怡亚通</t>
+          <t>瑞商贷</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>177</v>
+        <v>6328</v>
       </c>
       <c r="C10" t="n">
-        <v>10248.67</v>
+        <v>90153.00999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>317</v>
+        <v>7748</v>
       </c>
       <c r="E10" t="n">
-        <v>10935.2</v>
+        <v>124861.7</v>
       </c>
       <c r="F10" t="n">
-        <v>6.5</v>
+        <v>18.58</v>
       </c>
       <c r="G10" t="n">
-        <v>173</v>
+        <v>1436</v>
       </c>
       <c r="H10" t="n">
-        <v>11154.6</v>
+        <v>28902.3</v>
       </c>
       <c r="I10" t="n">
-        <v>330</v>
+        <v>1695</v>
       </c>
       <c r="J10" t="n">
-        <v>142</v>
+        <v>1259</v>
       </c>
       <c r="K10" t="n">
-        <v>57.9</v>
+        <v>14.25</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6357.11</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>2493.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>瑞商贷-重庆金微</t>
+          <t>瑞商贷-怡亚通</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="C11" t="n">
-        <v>809.52</v>
+        <v>10248.67</v>
       </c>
       <c r="D11" t="n">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="E11" t="n">
-        <v>1723</v>
+        <v>10935.2</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>11154.6</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="K11" t="n">
-        <v>10.38</v>
+        <v>57.9</v>
       </c>
       <c r="L11" t="n">
-        <v>68.36</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -5874,41 +5874,41 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>磁金融非循环</t>
+          <t>瑞商贷-重庆金微</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C12" t="n">
-        <v>5723</v>
+        <v>809.52</v>
       </c>
       <c r="D12" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E12" t="n">
-        <v>5723</v>
+        <v>1723</v>
       </c>
       <c r="F12" t="n">
-        <v>10.52</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>67.33</v>
+        <v>10.38</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>68.36</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5917,87 +5917,130 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>跨境电商-新连连</t>
+          <t>磁金融非循环</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C13" t="n">
-        <v>17.21</v>
+        <v>5723</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="E13" t="n">
-        <v>30</v>
+        <v>5723</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>10.52</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>17.21</v>
+        <v>67.33</v>
       </c>
       <c r="L13" t="n">
-        <v>17.21</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>17.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>跨境电商-新连连</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>17.21</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>30</v>
+      </c>
+      <c r="F14" t="n">
+        <v>11</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>17.21</v>
+      </c>
+      <c r="L14" t="n">
+        <v>17.21</v>
+      </c>
+      <c r="M14" t="n">
+        <v>17.21</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>9647</v>
-      </c>
-      <c r="C14" t="n">
-        <v>391553.67</v>
-      </c>
-      <c r="D14" t="n">
-        <v>11488</v>
-      </c>
-      <c r="E14" t="n">
-        <v>450239.34</v>
-      </c>
-      <c r="F14" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="B15" t="n">
+        <v>9657</v>
+      </c>
+      <c r="C15" t="n">
+        <v>391787.6</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11499</v>
+      </c>
+      <c r="E15" t="n">
+        <v>450722.44</v>
+      </c>
+      <c r="F15" t="n">
+        <v>112.6</v>
+      </c>
+      <c r="G15" t="n">
         <v>2031</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>96700.46000000001</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>2523</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J15" t="n">
         <v>1745</v>
       </c>
-      <c r="K14" t="n">
-        <v>1175.88</v>
-      </c>
-      <c r="L14" t="n">
-        <v>10297.06</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4636.01</v>
+      <c r="K15" t="n">
+        <v>1236.27</v>
+      </c>
+      <c r="L15" t="n">
+        <v>10373.2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4696.46</v>
       </c>
     </row>
   </sheetData>

--- a/excel/data202402.xlsx
+++ b/excel/data202402.xlsx
@@ -568,7 +568,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>82073.00</t>
+          <t>82000.00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>257385.00</t>
+          <t>257000.00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>75051.50</t>
+          <t>75000.00</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>167185.00</t>
+          <t>167000.00</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>84050.50</t>
+          <t>84000.00</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>34008.00</t>
+          <t>34000.00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>34008.00</t>
+          <t>34000.00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1575,12 +1575,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>35065.00</t>
+          <t>35000.00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1595,12 +1595,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>35065.00</t>
+          <t>35000.00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>88010.00</t>
+          <t>88000.00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>40010.00</t>
+          <t>40000.00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1843,12 +1843,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>288379.56</t>
+          <t>288004.56</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>39.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1863,12 +1863,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>217375.00</t>
+          <t>217000.00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1910,12 +1910,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>36841.50</t>
+          <t>36800.00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1930,12 +1930,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>18041.50</t>
+          <t>18000.00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2111,12 +2111,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>95579.00</t>
+          <t>95569.00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>37.00</t>
+          <t>36.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2131,12 +2131,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>27010.00</t>
+          <t>27000.00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2178,12 +2178,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>38505.00</t>
+          <t>38500.00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2198,12 +2198,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>29005.00</t>
+          <t>29000.00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>120680.00</t>
+          <t>120500.00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>108180.00</t>
+          <t>108000.00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>62050.50</t>
+          <t>62000.00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>62050.50</t>
+          <t>62000.00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">

--- a/excel/data202402.xlsx
+++ b/excel/data202402.xlsx
@@ -871,7 +871,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2000.00</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
